--- a/docs/20200606Trend.xlsx
+++ b/docs/20200606Trend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEFBAE1-4C01-4D34-97BE-ADBF89CFB253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA66A6F6-CB4E-46EE-B865-41AA353F88A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$218</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="242">
   <si>
     <t>indicator</t>
   </si>
@@ -751,6 +753,12 @@
   </si>
   <si>
     <t>dateCheck</t>
+  </si>
+  <si>
+    <t>returnCheck</t>
+  </si>
+  <si>
+    <t>returnDiff</t>
   </si>
 </sst>
 </file>
@@ -759,7 +767,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -806,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,13 +830,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,13 +1180,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S217"/>
+  <dimension ref="A1:U218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S219" sqref="S217:S219"/>
+      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,11 +1194,14 @@
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="11"/>
     <col min="18" max="18" width="9.140625" style="6"/>
     <col min="19" max="19" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1223,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1244,8 +1259,14 @@
       <c r="S1" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1299,15 +1320,23 @@
         <v>-0.24324324324324317</v>
       </c>
       <c r="R2" s="6">
-        <f>H2-Q2</f>
+        <f t="shared" ref="R2:R65" si="0">H2-Q2</f>
         <v>0</v>
       </c>
       <c r="S2" s="9" t="str">
         <f>IF(F2=D3,"TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <f>(H2+1)*E2</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U2">
+        <f>G2-T2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1329,7 +1358,7 @@
       <c r="G3">
         <v>0.32</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="11">
         <v>-0.14285714285714271</v>
       </c>
       <c r="I3">
@@ -1361,15 +1390,23 @@
         <v>-0.14285714285714277</v>
       </c>
       <c r="R3" s="6">
-        <f>H3-Q3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S3" s="9" t="str">
-        <f t="shared" ref="S3:S66" si="0">IF(F3=D4,"TRUE", "FALSE")</f>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S3:S66" si="1">IF(F3=D4,"TRUE", "FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="T3">
+        <f>G3+(H3*E3)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U3">
+        <f>E3-T3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1419,19 +1456,27 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <f>(G4-E4)/E4</f>
+        <f t="shared" ref="Q4:Q12" si="2">(G4-E4)/E4</f>
         <v>0.90624999999999989</v>
       </c>
       <c r="R4" s="6">
-        <f>H4-Q4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S4" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T4">
+        <f>(H4+1)*E4</f>
+        <v>0.61</v>
+      </c>
+      <c r="U4">
+        <f>G4-T4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1481,19 +1526,19 @@
         <v>3</v>
       </c>
       <c r="Q5">
-        <f>(G5-E5)/E5</f>
+        <f t="shared" si="2"/>
         <v>-0.13114754098360648</v>
       </c>
       <c r="R5" s="6">
-        <f>H5-Q5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1543,19 +1588,27 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <f>(G6-E6)/E6</f>
+        <f t="shared" si="2"/>
         <v>0.15094339622641501</v>
       </c>
       <c r="R6" s="6">
-        <f>H6-Q6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T6">
+        <f>(H6+1)*E6</f>
+        <v>0.61</v>
+      </c>
+      <c r="U6">
+        <f>G6-T6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1605,19 +1658,27 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <f>(G7-E7)/E7</f>
+        <f t="shared" si="2"/>
         <v>0.18032786885245899</v>
       </c>
       <c r="R7" s="6">
-        <f>H7-Q7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T7">
+        <f>(H7+1)*E7</f>
+        <v>0.72</v>
+      </c>
+      <c r="U7">
+        <f>G7-T7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1667,19 +1728,27 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <f>(G8-E8)/E8</f>
+        <f t="shared" si="2"/>
         <v>0.11111111111111122</v>
       </c>
       <c r="R8" s="6">
-        <f>H8-Q8</f>
+        <f t="shared" si="0"/>
         <v>-1.1102230246251565E-16</v>
       </c>
       <c r="S8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T8">
+        <f>(H8+1)*E8</f>
+        <v>0.8</v>
+      </c>
+      <c r="U8">
+        <f>G8-T8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1729,19 +1798,27 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <f>(G9-E9)/E9</f>
+        <f t="shared" si="2"/>
         <v>-1.2500000000000011E-2</v>
       </c>
       <c r="R9" s="6">
-        <f>H9-Q9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T9">
+        <f>(H9+1)*E9</f>
+        <v>0.79</v>
+      </c>
+      <c r="U9">
+        <f>G9-T9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1791,19 +1868,27 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <f>(G10-E10)/E10</f>
+        <f t="shared" si="2"/>
         <v>0.11392405063291135</v>
       </c>
       <c r="R10" s="6">
-        <f>H10-Q10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T10">
+        <f>(H10+1)*E10</f>
+        <v>0.88</v>
+      </c>
+      <c r="U10">
+        <f>G10-T10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1853,19 +1938,27 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <f>(G11-E11)/E11</f>
+        <f t="shared" si="2"/>
         <v>-0.14772727272727273</v>
       </c>
       <c r="R11" s="6">
-        <f>H11-Q11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T11">
+        <f>(H11+1)*E11</f>
+        <v>0.75</v>
+      </c>
+      <c r="U11">
+        <f>G11-T11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1915,19 +2008,27 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <f>(G12-E12)/E12</f>
+        <f t="shared" si="2"/>
         <v>-0.1333333333333333</v>
       </c>
       <c r="R12" s="6">
-        <f>H12-Q12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T12">
+        <f>(H12+1)*E12</f>
+        <v>0.65</v>
+      </c>
+      <c r="U12">
+        <f>G12-T12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1949,7 +2050,7 @@
       <c r="G13">
         <v>0.61</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="11">
         <v>6.1538461538461542E-2</v>
       </c>
       <c r="I13">
@@ -1981,15 +2082,23 @@
         <v>6.153846153846159E-2</v>
       </c>
       <c r="R13" s="6">
-        <f>H13-Q13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T13">
+        <f>G13+(H13*E13)</f>
+        <v>0.65</v>
+      </c>
+      <c r="U13">
+        <f>E13-T13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2043,15 +2152,23 @@
         <v>-9.8360655737704819E-2</v>
       </c>
       <c r="R14" s="6">
-        <f>H14-Q14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T14">
+        <f>(H14+1)*E14</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U14">
+        <f>G14-T14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2073,7 +2190,7 @@
       <c r="G15">
         <v>0.52500000000000002</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="11">
         <v>4.5454545454545463E-2</v>
       </c>
       <c r="I15">
@@ -2105,15 +2222,23 @@
         <v>4.5454545454545491E-2</v>
       </c>
       <c r="R15" s="6">
-        <f>H15-Q15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T15">
+        <f>G15+(H15*E15)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U15">
+        <f>E15-T15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2167,15 +2292,23 @@
         <v>-5.714285714285719E-2</v>
       </c>
       <c r="R16" s="6">
-        <f>H16-Q16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T16">
+        <f>(H16+1)*E16</f>
+        <v>0.495</v>
+      </c>
+      <c r="U16">
+        <f>G16-T16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2197,7 +2330,7 @@
       <c r="G17">
         <v>0.505</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="11">
         <v>-2.02020202020202E-2</v>
       </c>
       <c r="I17">
@@ -2229,15 +2362,23 @@
         <v>-2.0202020202020221E-2</v>
       </c>
       <c r="R17" s="6">
-        <f>H17-Q17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T17">
+        <f>G17+(H17*E17)</f>
+        <v>0.495</v>
+      </c>
+      <c r="U17">
+        <f>E17-T17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2291,15 +2432,23 @@
         <v>-2.9702970297029729E-2</v>
       </c>
       <c r="R18" s="6">
-        <f>H18-Q18</f>
+        <f t="shared" si="0"/>
         <v>2.7755575615628914E-17</v>
       </c>
       <c r="S18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T18">
+        <f>(H18+1)*E18</f>
+        <v>0.49</v>
+      </c>
+      <c r="U18">
+        <f>G18-T18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2321,7 +2470,7 @@
       <c r="G19">
         <v>0.47499999999999998</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="11">
         <v>3.0612244897959179E-2</v>
       </c>
       <c r="I19">
@@ -2353,15 +2502,23 @@
         <v>3.0612244897959211E-2</v>
       </c>
       <c r="R19" s="6">
-        <f>H19-Q19</f>
+        <f t="shared" si="0"/>
         <v>-3.1225022567582528E-17</v>
       </c>
       <c r="S19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T19">
+        <f>G19+(H19*E19)</f>
+        <v>0.49</v>
+      </c>
+      <c r="U19">
+        <f>E19-T19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2415,15 +2572,23 @@
         <v>-4.210526315789466E-2</v>
       </c>
       <c r="R20" s="6">
-        <f>H20-Q20</f>
+        <f t="shared" si="0"/>
         <v>-8.3266726846886741E-17</v>
       </c>
       <c r="S20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T20">
+        <f>(H20+1)*E20</f>
+        <v>0.45499999999999996</v>
+      </c>
+      <c r="U20">
+        <f>G20-T20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2445,7 +2610,7 @@
       <c r="G21">
         <v>0.51</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="11">
         <v>-0.12087912087912089</v>
       </c>
       <c r="I21">
@@ -2477,15 +2642,23 @@
         <v>-0.12087912087912087</v>
       </c>
       <c r="R21" s="6">
-        <f>H21-Q21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T21">
+        <f>G21+(H21*E21)</f>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="U21">
+        <f>E21-T21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2539,15 +2712,23 @@
         <v>0.1176470588235293</v>
       </c>
       <c r="R22" s="6">
-        <f>H22-Q22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T22">
+        <f>(H22+1)*E22</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U22">
+        <f>G22-T22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2601,15 +2782,23 @@
         <v>-0.14912280701754382</v>
       </c>
       <c r="R23" s="6">
-        <f>H23-Q23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T23">
+        <f>(H23+1)*E23</f>
+        <v>0.4850000000000001</v>
+      </c>
+      <c r="U23">
+        <f>G23-T23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2663,15 +2852,23 @@
         <v>-3.0927835051546421E-2</v>
       </c>
       <c r="R24" s="6">
-        <f>H24-Q24</f>
+        <f t="shared" si="0"/>
         <v>3.1225022567582528E-17</v>
       </c>
       <c r="S24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T24">
+        <f>(H24+1)*E24</f>
+        <v>0.47</v>
+      </c>
+      <c r="U24">
+        <f>G24-T24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2693,7 +2890,7 @@
       <c r="G25">
         <v>0.53</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="11">
         <v>-0.1276595744680851</v>
       </c>
       <c r="I25">
@@ -2725,15 +2922,23 @@
         <v>-0.12765957446808524</v>
       </c>
       <c r="R25" s="6">
-        <f>H25-Q25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T25">
+        <f>G25+(H25*E25)</f>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="U25">
+        <f>E25-T25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2787,15 +2992,23 @@
         <v>-0.13207547169811321</v>
       </c>
       <c r="R26" s="6">
-        <f>H26-Q26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T26">
+        <f>(H26+1)*E26</f>
+        <v>0.46</v>
+      </c>
+      <c r="U26">
+        <f>G26-T26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -2817,7 +3030,7 @@
       <c r="G27">
         <v>0.4</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="11">
         <v>0.1304347826086957</v>
       </c>
       <c r="I27">
@@ -2849,15 +3062,23 @@
         <v>0.13043478260869565</v>
       </c>
       <c r="R27" s="6">
-        <f>H27-Q27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T27">
+        <f>G27+(H27*E27)</f>
+        <v>0.46000000000000008</v>
+      </c>
+      <c r="U27">
+        <f>E27-T27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -2911,15 +3132,23 @@
         <v>-2.5000000000000022E-2</v>
       </c>
       <c r="R28" s="6">
-        <f>H28-Q28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T28">
+        <f>(H28+1)*E28</f>
+        <v>0.39</v>
+      </c>
+      <c r="U28">
+        <f>G28-T28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -2941,7 +3170,7 @@
       <c r="G29">
         <v>0.43</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="11">
         <v>-0.1025641025641026</v>
       </c>
       <c r="I29">
@@ -2973,15 +3202,23 @@
         <v>-0.10256410256410251</v>
       </c>
       <c r="R29" s="6">
-        <f>H29-Q29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T29">
+        <f>G29+(H29*E29)</f>
+        <v>0.38999999999999996</v>
+      </c>
+      <c r="U29">
+        <f>E29-T29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3035,15 +3272,23 @@
         <v>-0.16279069767441862</v>
       </c>
       <c r="R30" s="6">
-        <f>H30-Q30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T30">
+        <f>(H30+1)*E30</f>
+        <v>0.36</v>
+      </c>
+      <c r="U30">
+        <f>G30-T30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -3065,7 +3310,7 @@
       <c r="G31">
         <v>0.36</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="11">
         <v>0</v>
       </c>
       <c r="I31">
@@ -3097,15 +3342,23 @@
         <v>0</v>
       </c>
       <c r="R31" s="6">
-        <f>H31-Q31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T31">
+        <f>G31+(H31*E31)</f>
+        <v>0.36</v>
+      </c>
+      <c r="U31">
+        <f>E31-T31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -3159,15 +3412,23 @@
         <v>-0.13888888888888887</v>
       </c>
       <c r="R32" s="6">
-        <f>H32-Q32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T32">
+        <f>(H32+1)*E32</f>
+        <v>0.31</v>
+      </c>
+      <c r="U32">
+        <f>G32-T32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -3189,7 +3450,7 @@
       <c r="G33">
         <v>0.35</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="11">
         <v>-0.1290322580645161</v>
       </c>
       <c r="I33">
@@ -3221,15 +3482,23 @@
         <v>-0.12903225806451607</v>
       </c>
       <c r="R33" s="6">
-        <f>H33-Q33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T33">
+        <f>G33+(H33*E33)</f>
+        <v>0.31</v>
+      </c>
+      <c r="U33">
+        <f>E33-T33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -3283,15 +3552,23 @@
         <v>-5.7142857142857037E-2</v>
       </c>
       <c r="R34" s="6">
-        <f>H34-Q34</f>
+        <f t="shared" si="0"/>
         <v>-1.0408340855860843E-16</v>
       </c>
       <c r="S34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T34">
+        <f>(H34+1)*E34</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="U34">
+        <f>G34-T34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -3313,7 +3590,7 @@
       <c r="G35">
         <v>0.32500000000000001</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="11">
         <v>1.515151515151515E-2</v>
       </c>
       <c r="I35">
@@ -3345,15 +3622,23 @@
         <v>1.5151515151515164E-2</v>
       </c>
       <c r="R35" s="6">
-        <f>H35-Q35</f>
+        <f t="shared" si="0"/>
         <v>-1.3877787807814457E-17</v>
       </c>
       <c r="S35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T35">
+        <f>G35+(H35*E35)</f>
+        <v>0.33</v>
+      </c>
+      <c r="U35">
+        <f>E35-T35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -3407,15 +3692,23 @@
         <v>4.6153846153846191E-2</v>
       </c>
       <c r="R36" s="6">
-        <f>H36-Q36</f>
+        <f t="shared" si="0"/>
         <v>1.1102230246251565E-16</v>
       </c>
       <c r="S36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T36">
+        <f>(H36+1)*E36</f>
+        <v>0.34</v>
+      </c>
+      <c r="U36">
+        <f>G36-T36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -3437,7 +3730,7 @@
       <c r="G37">
         <v>0.35499999999999998</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="11">
         <v>-4.4117647058823387E-2</v>
       </c>
       <c r="I37">
@@ -3469,15 +3762,23 @@
         <v>-4.41176470588234E-2</v>
       </c>
       <c r="R37" s="6">
-        <f>H37-Q37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T37">
+        <f>G37+(H37*E37)</f>
+        <v>0.34</v>
+      </c>
+      <c r="U37">
+        <f>E37-T37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -3531,15 +3832,23 @@
         <v>-7.0422535211267512E-2</v>
       </c>
       <c r="R38" s="6">
-        <f>H38-Q38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T38">
+        <f>(H38+1)*E38</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="U38">
+        <f>G38-T38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -3561,7 +3870,7 @@
       <c r="G39">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="11">
         <v>0.15151515151515141</v>
       </c>
       <c r="I39">
@@ -3593,15 +3902,23 @@
         <v>0.15151515151515146</v>
       </c>
       <c r="R39" s="6">
-        <f>H39-Q39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T39">
+        <f>G39+(H39*E39)</f>
+        <v>0.33</v>
+      </c>
+      <c r="U39">
+        <f>E39-T39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -3655,15 +3972,23 @@
         <v>-8.9285714285714357E-2</v>
       </c>
       <c r="R40" s="6">
-        <f>H40-Q40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T40">
+        <f>(H40+1)*E40</f>
+        <v>0.255</v>
+      </c>
+      <c r="U40">
+        <f>G40-T40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -3685,7 +4010,7 @@
       <c r="G41">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="11">
         <v>-7.8431372549019607E-2</v>
       </c>
       <c r="I41">
@@ -3717,15 +4042,23 @@
         <v>-7.8431372549019676E-2</v>
       </c>
       <c r="R41" s="6">
-        <f>H41-Q41</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T41">
+        <f>G41+(H41*E41)</f>
+        <v>0.255</v>
+      </c>
+      <c r="U41">
+        <f>E41-T41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -3779,15 +4112,23 @@
         <v>-1.8181818181818195E-2</v>
       </c>
       <c r="R42" s="6">
-        <f>H42-Q42</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S42" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T42">
+        <f>(H42+1)*E42</f>
+        <v>0.27</v>
+      </c>
+      <c r="U42">
+        <f>G42-T42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -3809,7 +4150,7 @@
       <c r="G43">
         <v>0.25</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="11">
         <v>7.407407407407407E-2</v>
       </c>
       <c r="I43">
@@ -3841,15 +4182,23 @@
         <v>7.4074074074074139E-2</v>
       </c>
       <c r="R43" s="6">
-        <f>H43-Q43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T43">
+        <f>G43+(H43*E43)</f>
+        <v>0.27</v>
+      </c>
+      <c r="U43">
+        <f>E43-T43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -3903,15 +4252,23 @@
         <v>0.34000000000000008</v>
       </c>
       <c r="R44" s="6">
-        <f>H44-Q44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S44" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T44">
+        <f>(H44+1)*E44</f>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="U44">
+        <f>G44-T44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -3965,15 +4322,23 @@
         <v>1</v>
       </c>
       <c r="R45" s="6">
-        <f>H45-Q45</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S45" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T45">
+        <f>(H45+1)*E45</f>
+        <v>0.67</v>
+      </c>
+      <c r="U45">
+        <f>G45-T45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -4027,15 +4392,23 @@
         <v>-0.23880597014925375</v>
       </c>
       <c r="R46" s="6">
-        <f>H46-Q46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S46" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T46">
+        <f>(H46+1)*E46</f>
+        <v>0.51</v>
+      </c>
+      <c r="U46">
+        <f>G46-T46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -4057,7 +4430,7 @@
       <c r="G47">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="11">
         <v>-7.8431372549019607E-2</v>
       </c>
       <c r="I47">
@@ -4089,15 +4462,23 @@
         <v>-7.8431372549019676E-2</v>
       </c>
       <c r="R47" s="6">
-        <f>H47-Q47</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S47" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T47">
+        <f>G47+(H47*E47)</f>
+        <v>0.51</v>
+      </c>
+      <c r="U47">
+        <f>E47-T47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -4147,19 +4528,27 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <f>(G48-E48)/E48</f>
+        <f t="shared" ref="Q48:Q58" si="3">(G48-E48)/E48</f>
         <v>0.22727272727272727</v>
       </c>
       <c r="R48" s="6">
-        <f>H48-Q48</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S48" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T48">
+        <f>(H48+1)*E48</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="U48">
+        <f>G48-T48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -4209,19 +4598,27 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <f>(G49-E49)/E49</f>
+        <f t="shared" si="3"/>
         <v>0.97037037037037033</v>
       </c>
       <c r="R49" s="6">
-        <f>H49-Q49</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S49" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T49">
+        <f>(H49+1)*E49</f>
+        <v>1.33</v>
+      </c>
+      <c r="U49">
+        <f>G49-T49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -4271,19 +4668,27 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <f>(G50-E50)/E50</f>
+        <f t="shared" si="3"/>
         <v>-2.2556390977443629E-2</v>
       </c>
       <c r="R50" s="6">
-        <f>H50-Q50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S50" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T50">
+        <f>(H50+1)*E50</f>
+        <v>1.3</v>
+      </c>
+      <c r="U50">
+        <f>G50-T50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -4333,19 +4738,27 @@
         <v>3</v>
       </c>
       <c r="Q51">
-        <f>(G51-E51)/E51</f>
+        <f t="shared" si="3"/>
         <v>5.3846153846153891E-2</v>
       </c>
       <c r="R51" s="6">
-        <f>H51-Q51</f>
+        <f t="shared" si="0"/>
         <v>9.7144514654701197E-17</v>
       </c>
       <c r="S51" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T51">
+        <f>(H51+1)*E51</f>
+        <v>1.3700000000000003</v>
+      </c>
+      <c r="U51">
+        <f>G51-T51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -4395,19 +4808,27 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <f>(G52-E52)/E52</f>
+        <f t="shared" si="3"/>
         <v>0.13138686131386856</v>
       </c>
       <c r="R52" s="6">
-        <f>H52-Q52</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S52" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T52">
+        <f>(H52+1)*E52</f>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="U52">
+        <f>G52-T52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -4457,19 +4878,27 @@
         <v>3</v>
       </c>
       <c r="Q53">
-        <f>(G53-E53)/E53</f>
+        <f t="shared" si="3"/>
         <v>-7.0967741935483927E-2</v>
       </c>
       <c r="R53" s="6">
-        <f>H53-Q53</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S53" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T53">
+        <f>(H53+1)*E53</f>
+        <v>1.4400000000000002</v>
+      </c>
+      <c r="U53">
+        <f>G53-T53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -4519,19 +4948,27 @@
         <v>3</v>
       </c>
       <c r="Q54">
-        <f>(G54-E54)/E54</f>
+        <f t="shared" si="3"/>
         <v>7.6388888888888964E-2</v>
       </c>
       <c r="R54" s="6">
-        <f>H54-Q54</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S54" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T54">
+        <f>(H54+1)*E54</f>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="U54">
+        <f>G54-T54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -4581,19 +5018,27 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <f>(G55-E55)/E55</f>
+        <f t="shared" si="3"/>
         <v>-3.8709677419354875E-2</v>
       </c>
       <c r="R55" s="6">
-        <f>H55-Q55</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S55" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T55">
+        <f>(H55+1)*E55</f>
+        <v>1.49</v>
+      </c>
+      <c r="U55">
+        <f>G55-T55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -4643,19 +5088,27 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <f>(G56-E56)/E56</f>
+        <f t="shared" si="3"/>
         <v>0.12751677852348989</v>
       </c>
       <c r="R56" s="6">
-        <f>H56-Q56</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S56" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T56">
+        <f>(H56+1)*E56</f>
+        <v>1.68</v>
+      </c>
+      <c r="U56">
+        <f>G56-T56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -4705,19 +5158,27 @@
         <v>3</v>
       </c>
       <c r="Q57">
-        <f>(G57-E57)/E57</f>
+        <f t="shared" si="3"/>
         <v>-0.30952380952380953</v>
       </c>
       <c r="R57" s="6">
-        <f>H57-Q57</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S57" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T57">
+        <f>(H57+1)*E57</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="U57">
+        <f>G57-T57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -4767,19 +5228,27 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <f>(G58-E58)/E58</f>
+        <f t="shared" si="3"/>
         <v>-2.155172413793096E-2</v>
       </c>
       <c r="R58" s="6">
-        <f>H58-Q58</f>
+        <f t="shared" si="0"/>
         <v>-7.9797279894933126E-17</v>
       </c>
       <c r="S58" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T58">
+        <f>(H58+1)*E58</f>
+        <v>1.135</v>
+      </c>
+      <c r="U58">
+        <f>G58-T58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -4801,7 +5270,7 @@
       <c r="G59">
         <v>0.98499999999999999</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="11">
         <v>0.13215859030836999</v>
       </c>
       <c r="I59">
@@ -4833,15 +5302,23 @@
         <v>0.13215859030837007</v>
       </c>
       <c r="R59" s="6">
-        <f>H59-Q59</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S59" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T59">
+        <f>G59+(H59*E59)</f>
+        <v>1.135</v>
+      </c>
+      <c r="U59">
+        <f>E59-T59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -4895,15 +5372,23 @@
         <v>-7.6142131979695382E-2</v>
       </c>
       <c r="R60" s="6">
-        <f>H60-Q60</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S60" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T60">
+        <f>(H60+1)*E60</f>
+        <v>0.91</v>
+      </c>
+      <c r="U60">
+        <f>G60-T60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -4925,7 +5410,7 @@
       <c r="G61">
         <v>0.82499999999999996</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="11">
         <v>9.3406593406593408E-2</v>
       </c>
       <c r="I61">
@@ -4957,15 +5442,23 @@
         <v>9.3406593406593491E-2</v>
       </c>
       <c r="R61" s="6">
-        <f>H61-Q61</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S61" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T61">
+        <f>G61+(H61*E61)</f>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="U61">
+        <f>E61-T61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -5019,15 +5512,23 @@
         <v>-0.1393939393939394</v>
       </c>
       <c r="R62" s="6">
-        <f>H62-Q62</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S62" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T62">
+        <f>(H62+1)*E62</f>
+        <v>0.71</v>
+      </c>
+      <c r="U62">
+        <f>G62-T62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -5049,7 +5550,7 @@
       <c r="G63">
         <v>0.86</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="11">
         <v>-0.21126760563380281</v>
       </c>
       <c r="I63">
@@ -5081,15 +5582,23 @@
         <v>-0.21126760563380287</v>
       </c>
       <c r="R63" s="6">
-        <f>H63-Q63</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S63" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T63">
+        <f>G63+(H63*E63)</f>
+        <v>0.71</v>
+      </c>
+      <c r="U63">
+        <f>E63-T63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -5143,15 +5652,23 @@
         <v>-0.24418604651162787</v>
       </c>
       <c r="R64" s="6">
-        <f>H64-Q64</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S64" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T64">
+        <f>(H64+1)*E64</f>
+        <v>0.65</v>
+      </c>
+      <c r="U64">
+        <f>G64-T64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -5173,7 +5690,7 @@
       <c r="G65">
         <v>0.51</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="11">
         <v>0.2153846153846154</v>
       </c>
       <c r="I65">
@@ -5205,15 +5722,23 @@
         <v>0.2153846153846154</v>
       </c>
       <c r="R65" s="6">
-        <f>H65-Q65</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S65" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T65">
+        <f>G65+(H65*E65)</f>
+        <v>0.65</v>
+      </c>
+      <c r="U65">
+        <f>E65-T65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -5267,15 +5792,23 @@
         <v>1.9607843137254919E-2</v>
       </c>
       <c r="R66" s="6">
-        <f>H66-Q66</f>
+        <f t="shared" ref="R66:R129" si="4">H66-Q66</f>
         <v>0</v>
       </c>
       <c r="S66" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T66">
+        <f>(H66+1)*E66</f>
+        <v>0.52</v>
+      </c>
+      <c r="U66">
+        <f>G66-T66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -5297,7 +5830,7 @@
       <c r="G67">
         <v>0.54</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="11">
         <v>-3.8461538461538457E-2</v>
       </c>
       <c r="I67">
@@ -5329,15 +5862,23 @@
         <v>-3.8461538461538491E-2</v>
       </c>
       <c r="R67" s="6">
-        <f>H67-Q67</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S67" s="9" t="str">
-        <f t="shared" ref="S67:S110" si="1">IF(F67=D68,"TRUE", "FALSE")</f>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S67:S109" si="5">IF(F67=D68,"TRUE", "FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="T67">
+        <f>G67+(H67*E67)</f>
+        <v>0.52</v>
+      </c>
+      <c r="U67">
+        <f>E67-T67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -5391,15 +5932,23 @@
         <v>0.39814814814814808</v>
       </c>
       <c r="R68" s="6">
-        <f>H68-Q68</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S68" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T68">
+        <f>(H68+1)*E68</f>
+        <v>0.755</v>
+      </c>
+      <c r="U68">
+        <f>G68-T68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -5453,15 +6002,23 @@
         <v>-8.6092715231788158E-2</v>
       </c>
       <c r="R69" s="6">
-        <f>H69-Q69</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S69" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T69">
+        <f>(H69+1)*E69</f>
+        <v>0.69</v>
+      </c>
+      <c r="U69">
+        <f>G69-T69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -5515,15 +6072,23 @@
         <v>4.3478260869565258E-2</v>
       </c>
       <c r="R70" s="6">
-        <f>H70-Q70</f>
+        <f t="shared" si="4"/>
         <v>1.0408340855860843E-16</v>
       </c>
       <c r="S70" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T70">
+        <f>(H70+1)*E70</f>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="U70">
+        <f>G70-T70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -5577,15 +6142,23 @@
         <v>0</v>
       </c>
       <c r="R71" s="6">
-        <f>H71-Q71</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S71" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T71">
+        <f>(H71+1)*E71</f>
+        <v>0.72</v>
+      </c>
+      <c r="U71">
+        <f>G71-T71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -5639,15 +6212,23 @@
         <v>-0.18055555555555558</v>
       </c>
       <c r="R72" s="6">
-        <f>H72-Q72</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S72" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T72">
+        <f>(H72+1)*E72</f>
+        <v>0.59</v>
+      </c>
+      <c r="U72">
+        <f>G72-T72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -5669,7 +6250,7 @@
       <c r="G73">
         <v>0.69</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="11">
         <v>-0.1694915254237287</v>
       </c>
       <c r="I73">
@@ -5701,15 +6282,23 @@
         <v>-0.16949152542372878</v>
       </c>
       <c r="R73" s="6">
-        <f>H73-Q73</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S73" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T73">
+        <f>G73+(H73*E73)</f>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="U73">
+        <f>E73-T73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -5763,15 +6352,23 @@
         <v>1.7391304347826105E-2</v>
       </c>
       <c r="R74" s="6">
-        <f>H74-Q74</f>
+        <f t="shared" si="4"/>
         <v>1.1449174941446927E-16</v>
       </c>
       <c r="S74" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T74">
+        <f>(H74+1)*E74</f>
+        <v>0.70200000000000007</v>
+      </c>
+      <c r="U74">
+        <f>G74-T74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -5825,15 +6422,23 @@
         <v>-7.4074074074073987E-2</v>
       </c>
       <c r="R75" s="6">
-        <f>H75-Q75</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S75" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T75">
+        <f>(H75+1)*E75</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="U75">
+        <f>G75-T75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -5887,15 +6492,23 @@
         <v>-1.5384615384615398E-2</v>
       </c>
       <c r="R76" s="6">
-        <f>H76-Q76</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S76" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T76">
+        <f>(H76+1)*E76</f>
+        <v>0.64</v>
+      </c>
+      <c r="U76">
+        <f>G76-T76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -5917,7 +6530,7 @@
       <c r="G77">
         <v>0.73</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="11">
         <v>-0.140625</v>
       </c>
       <c r="I77">
@@ -5949,15 +6562,23 @@
         <v>-0.14062499999999994</v>
       </c>
       <c r="R77" s="6">
-        <f>H77-Q77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S77" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T77">
+        <f>G77+(H77*E77)</f>
+        <v>0.64</v>
+      </c>
+      <c r="U77">
+        <f>E77-T77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -6011,15 +6632,23 @@
         <v>-6.8493150684931572E-3</v>
       </c>
       <c r="R78" s="6">
-        <f>H78-Q78</f>
+        <f t="shared" si="4"/>
         <v>6.9388939039072284E-18</v>
       </c>
       <c r="S78" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T78">
+        <f>(H78+1)*E78</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="U78">
+        <f>G78-T78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -6073,15 +6702,23 @@
         <v>-0.11034482758620684</v>
       </c>
       <c r="R79" s="6">
-        <f>H79-Q79</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S79" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T79">
+        <f>(H79+1)*E79</f>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="U79">
+        <f>G79-T79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>23</v>
       </c>
@@ -6135,15 +6772,23 @@
         <v>7.7519379844961309E-3</v>
       </c>
       <c r="R80" s="6">
-        <f>H80-Q80</f>
+        <f t="shared" si="4"/>
         <v>-6.9388939039072284E-18</v>
       </c>
       <c r="S80" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T80">
+        <f>(H80+1)*E80</f>
+        <v>0.65</v>
+      </c>
+      <c r="U80">
+        <f>G80-T80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -6165,7 +6810,7 @@
       <c r="G81">
         <v>0.74</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="11">
         <v>-0.1384615384615385</v>
       </c>
       <c r="I81">
@@ -6197,15 +6842,23 @@
         <v>-0.13846153846153841</v>
       </c>
       <c r="R81" s="6">
-        <f>H81-Q81</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S81" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T81">
+        <f>G81+(H81*E81)</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="U81">
+        <f>E81-T81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -6259,15 +6912,23 @@
         <v>-6.7567567567567632E-3</v>
       </c>
       <c r="R82" s="6">
-        <f>H82-Q82</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S82" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T82">
+        <f>(H82+1)*E82</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="U82">
+        <f>G82-T82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -6321,15 +6982,23 @@
         <v>-9.5238095238095177E-2</v>
       </c>
       <c r="R83" s="6">
-        <f>H83-Q83</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S83" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T83">
+        <f>(H83+1)*E83</f>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="U83">
+        <f>G83-T83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -6383,15 +7052,23 @@
         <v>7.5187969924812095E-3</v>
       </c>
       <c r="R84" s="6">
-        <f>H84-Q84</f>
+        <f t="shared" si="4"/>
         <v>-6.9388939039072284E-18</v>
       </c>
       <c r="S84" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T84">
+        <f>(H84+1)*E84</f>
+        <v>0.67</v>
+      </c>
+      <c r="U84">
+        <f>G84-T84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -6413,7 +7090,7 @@
       <c r="G85">
         <v>0.74</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="11">
         <v>-0.1044776119402985</v>
       </c>
       <c r="I85">
@@ -6445,15 +7122,23 @@
         <v>-0.10447761194029843</v>
       </c>
       <c r="R85" s="6">
-        <f>H85-Q85</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S85" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T85">
+        <f>G85+(H85*E85)</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="U85">
+        <f>E85-T85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -6503,19 +7188,27 @@
         <v>3</v>
       </c>
       <c r="Q86">
-        <f>(G86-E86)/E86</f>
+        <f t="shared" ref="Q86:Q96" si="6">(G86-E86)/E86</f>
         <v>-2.7027027027027053E-2</v>
       </c>
       <c r="R86" s="6">
-        <f>H86-Q86</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S86" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T86">
+        <f>(H86+1)*E86</f>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="U86">
+        <f>G86-T86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -6565,19 +7258,27 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <f>(G87-E87)/E87</f>
+        <f t="shared" si="6"/>
         <v>-6.2499999999999903E-2</v>
       </c>
       <c r="R87" s="6">
-        <f>H87-Q87</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S87" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T87">
+        <f>(H87+1)*E87</f>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="U87">
+        <f>G87-T87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -6627,19 +7328,27 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <f>(G88-E88)/E88</f>
+        <f t="shared" si="6"/>
         <v>9.6296296296296213E-2</v>
       </c>
       <c r="R88" s="6">
-        <f>H88-Q88</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S88" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T88">
+        <f>(H88+1)*E88</f>
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="U88">
+        <f>G88-T88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -6689,19 +7398,27 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <f>(G89-E89)/E89</f>
+        <f t="shared" si="6"/>
         <v>-9.459459459459453E-2</v>
       </c>
       <c r="R89" s="6">
-        <f>H89-Q89</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S89" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T89">
+        <f>(H89+1)*E89</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="U89">
+        <f>G89-T89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -6751,19 +7468,27 @@
         <v>3</v>
       </c>
       <c r="Q90">
-        <f>(G90-E90)/E90</f>
+        <f t="shared" si="6"/>
         <v>8.2089552238805874E-2</v>
       </c>
       <c r="R90" s="6">
-        <f>H90-Q90</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S90" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T90">
+        <f>(H90+1)*E90</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="U90">
+        <f>G90-T90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -6813,19 +7538,27 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <f>(G91-E91)/E91</f>
+        <f t="shared" si="6"/>
         <v>0.89655172413793105</v>
       </c>
       <c r="R91" s="6">
-        <f>H91-Q91</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S91" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T91">
+        <f>(H91+1)*E91</f>
+        <v>1.375</v>
+      </c>
+      <c r="U91">
+        <f>G91-T91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -6875,19 +7608,27 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <f>(G92-E92)/E92</f>
+        <f t="shared" si="6"/>
         <v>-5.4545454545454515E-2</v>
       </c>
       <c r="R92" s="6">
-        <f>H92-Q92</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S92" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T92">
+        <f>(H92+1)*E92</f>
+        <v>1.3</v>
+      </c>
+      <c r="U92">
+        <f>G92-T92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -6937,19 +7678,27 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <f>(G93-E93)/E93</f>
+        <f t="shared" si="6"/>
         <v>-9.6153846153846145E-2</v>
       </c>
       <c r="R93" s="6">
-        <f>H93-Q93</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S93" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T93">
+        <f>(H93+1)*E93</f>
+        <v>1.175</v>
+      </c>
+      <c r="U93">
+        <f>G93-T93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -6999,19 +7748,27 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <f>(G94-E94)/E94</f>
+        <f t="shared" si="6"/>
         <v>0.22127659574468084</v>
       </c>
       <c r="R94" s="6">
-        <f>H94-Q94</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S94" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T94">
+        <f>(H94+1)*E94</f>
+        <v>1.4349999999999998</v>
+      </c>
+      <c r="U94">
+        <f>G94-T94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -7061,19 +7818,27 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <f>(G95-E95)/E95</f>
+        <f t="shared" si="6"/>
         <v>-6.6202090592334478E-2</v>
       </c>
       <c r="R95" s="6">
-        <f>H95-Q95</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S95" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T95">
+        <f>(H95+1)*E95</f>
+        <v>1.34</v>
+      </c>
+      <c r="U95">
+        <f>G95-T95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -7123,19 +7888,27 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <f>(G96-E96)/E96</f>
+        <f t="shared" si="6"/>
         <v>-0.19029850746268664</v>
       </c>
       <c r="R96" s="6">
-        <f>H96-Q96</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S96" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T96">
+        <f>(H96+1)*E96</f>
+        <v>1.085</v>
+      </c>
+      <c r="U96">
+        <f>G96-T96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -7157,7 +7930,7 @@
       <c r="G97">
         <v>1.26</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="11">
         <v>-0.16129032258064521</v>
       </c>
       <c r="I97">
@@ -7189,15 +7962,23 @@
         <v>-0.16129032258064521</v>
       </c>
       <c r="R97" s="6">
-        <f>H97-Q97</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S97" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T97">
+        <f>G97+(H97*E97)</f>
+        <v>1.085</v>
+      </c>
+      <c r="U97">
+        <f>E97-T97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -7251,15 +8032,23 @@
         <v>0.10317460317460309</v>
       </c>
       <c r="R98" s="6">
-        <f>H98-Q98</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S98" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T98">
+        <f>(H98+1)*E98</f>
+        <v>1.39</v>
+      </c>
+      <c r="U98">
+        <f>G98-T98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -7313,15 +8102,23 @@
         <v>-0.1007194244604316</v>
       </c>
       <c r="R99" s="6">
-        <f>H99-Q99</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S99" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T99">
+        <f>(H99+1)*E99</f>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="U99">
+        <f>G99-T99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -7375,15 +8172,23 @@
         <v>-0.11199999999999992</v>
       </c>
       <c r="R100" s="6">
-        <f>H100-Q100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S100" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T100">
+        <f>(H100+1)*E100</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="U100">
+        <f>G100-T100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -7405,7 +8210,7 @@
       <c r="G101">
         <v>1.25</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="11">
         <v>-0.126126126126126</v>
       </c>
       <c r="I101">
@@ -7437,15 +8242,23 @@
         <v>-0.12612612612612603</v>
       </c>
       <c r="R101" s="6">
-        <f>H101-Q101</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S101" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T101">
+        <f>G101+(H101*E101)</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="U101">
+        <f>E101-T101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -7499,15 +8312,23 @@
         <v>-3.9999999999999151E-3</v>
       </c>
       <c r="R102" s="6">
-        <f>H102-Q102</f>
+        <f t="shared" si="4"/>
         <v>6.0715321659188248E-17</v>
       </c>
       <c r="S102" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T102">
+        <f>(H102+1)*E102</f>
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="U102">
+        <f>G102-T102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -7561,15 +8382,23 @@
         <v>4.4176706827309183E-2</v>
       </c>
       <c r="R103" s="6">
-        <f>H103-Q103</f>
+        <f t="shared" si="4"/>
         <v>-9.0205620750793969E-17</v>
       </c>
       <c r="S103" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T103">
+        <f>(H103+1)*E103</f>
+        <v>1.3</v>
+      </c>
+      <c r="U103">
+        <f>G103-T103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -7623,15 +8452,23 @@
         <v>-2.3076923076923096E-2</v>
       </c>
       <c r="R104" s="6">
-        <f>H104-Q104</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S104" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T104">
+        <f>(H104+1)*E104</f>
+        <v>1.27</v>
+      </c>
+      <c r="U104">
+        <f>G104-T104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -7685,15 +8522,23 @@
         <v>-3.9370078740157514E-2</v>
       </c>
       <c r="R105" s="6">
-        <f>H105-Q105</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S105" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T105">
+        <f>(H105+1)*E105</f>
+        <v>1.22</v>
+      </c>
+      <c r="U105">
+        <f>G105-T105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -7747,15 +8592,23 @@
         <v>-3.6885245901639288E-2</v>
       </c>
       <c r="R106" s="6">
-        <f>H106-Q106</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S106" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T106">
+        <f>(H106+1)*E106</f>
+        <v>1.175</v>
+      </c>
+      <c r="U106">
+        <f>G106-T106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -7777,7 +8630,7 @@
       <c r="G107">
         <v>1.01</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="11">
         <v>0.1404255319148936</v>
       </c>
       <c r="I107">
@@ -7809,15 +8662,23 @@
         <v>0.14042553191489365</v>
       </c>
       <c r="R107" s="6">
-        <f>H107-Q107</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S107" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T107">
+        <f>G107+(H107*E107)</f>
+        <v>1.175</v>
+      </c>
+      <c r="U107">
+        <f>E107-T107</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -7871,15 +8732,23 @@
         <v>-6.4356435643564414E-2</v>
       </c>
       <c r="R108" s="6">
-        <f>H108-Q108</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S108" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T108">
+        <f>(H108+1)*E108</f>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="U108">
+        <f>G108-T108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -7901,7 +8770,7 @@
       <c r="G109">
         <v>1.01</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="11">
         <v>-6.8783068783068779E-2</v>
       </c>
       <c r="I109">
@@ -7933,15 +8802,23 @@
         <v>-6.8783068783068849E-2</v>
       </c>
       <c r="R109" s="6">
-        <f>H109-Q109</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S109" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T109">
+        <f>G109+(H109*E109)</f>
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="U109">
+        <f>E109-T109</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -7995,11 +8872,19 @@
         <v>3.9603960396039639E-2</v>
       </c>
       <c r="R110" s="7">
-        <f>H110-Q110</f>
+        <f t="shared" si="4"/>
         <v>1.4851485148514823E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T110">
+        <f t="shared" ref="T110:T111" si="7">(H110+1)*E110</f>
+        <v>1.0650000000000002</v>
+      </c>
+      <c r="U110">
+        <f t="shared" ref="U110:U111" si="8">G110-T110</f>
+        <v>-1.5000000000000124E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -8053,15 +8938,23 @@
         <v>-0.13636363636363635</v>
       </c>
       <c r="R111" s="6">
-        <f>H111-Q111</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S111" s="3" t="str">
         <f>IF(F111=D112,"TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T111">
+        <f t="shared" si="7"/>
+        <v>0.37999999999999995</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -8083,7 +8976,7 @@
       <c r="G112">
         <v>0.35</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="11">
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="I112">
@@ -8115,15 +9008,23 @@
         <v>7.8947368421052697E-2</v>
       </c>
       <c r="R112" s="6">
-        <f>H112-Q112</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S112" s="3" t="str">
-        <f t="shared" ref="S112:S175" si="2">IF(F112=D113,"TRUE", "FALSE")</f>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S112:S175" si="9">IF(F112=D113,"TRUE", "FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="T112">
+        <f>G112+(H112*E112)</f>
+        <v>0.38</v>
+      </c>
+      <c r="U112">
+        <f>E112-T112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -8177,15 +9078,23 @@
         <v>-0.14285714285714282</v>
       </c>
       <c r="R113" s="6">
-        <f>H113-Q113</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S113" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T113">
+        <f>(H113+1)*E113</f>
+        <v>0.3</v>
+      </c>
+      <c r="U113">
+        <f>G113-T113</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -8207,7 +9116,7 @@
       <c r="G114">
         <v>0.34</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="11">
         <v>-0.1333333333333335</v>
       </c>
       <c r="I114">
@@ -8239,15 +9148,23 @@
         <v>-0.13333333333333347</v>
       </c>
       <c r="R114" s="6">
-        <f>H114-Q114</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S114" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T114">
+        <f>G114+(H114*E114)</f>
+        <v>0.3</v>
+      </c>
+      <c r="U114">
+        <f>E114-T114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -8297,19 +9214,27 @@
         <v>3</v>
       </c>
       <c r="Q115">
-        <f>(G115-E115)/E115</f>
+        <f t="shared" ref="Q115:Q125" si="10">(G115-E115)/E115</f>
         <v>0.39705882352941158</v>
       </c>
       <c r="R115" s="6">
-        <f>H115-Q115</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S115" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T115">
+        <f>(H115+1)*E115</f>
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="U115">
+        <f>G115-T115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -8359,19 +9284,27 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <f>(G116-E116)/E116</f>
+        <f t="shared" si="10"/>
         <v>0.22105263157894733</v>
       </c>
       <c r="R116" s="6">
-        <f>H116-Q116</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S116" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(F116=D117,"TRUE", "FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="T116">
+        <f>(H116+1)*E116</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U116">
+        <f>G116-T116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -8421,19 +9354,27 @@
         <v>3</v>
       </c>
       <c r="Q117">
-        <f>(G117-E117)/E117</f>
+        <f t="shared" si="10"/>
         <v>0.18965517241379309</v>
       </c>
       <c r="R117" s="6">
-        <f>H117-Q117</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S117" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T117">
+        <f>(H117+1)*E117</f>
+        <v>0.68999999999999984</v>
+      </c>
+      <c r="U117">
+        <f>G117-T117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -8483,19 +9424,27 @@
         <v>3</v>
       </c>
       <c r="Q118">
-        <f>(G118-E118)/E118</f>
+        <f t="shared" si="10"/>
         <v>0.23188405797101455</v>
       </c>
       <c r="R118" s="6">
-        <f>H118-Q118</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S118" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T118">
+        <f>(H118+1)*E118</f>
+        <v>0.85</v>
+      </c>
+      <c r="U118">
+        <f>G118-T118</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -8545,19 +9494,27 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <f>(G119-E119)/E119</f>
+        <f t="shared" si="10"/>
         <v>8.235294117647067E-2</v>
       </c>
       <c r="R119" s="6">
-        <f>H119-Q119</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S119" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T119">
+        <f>(H119+1)*E119</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="U119">
+        <f>G119-T119</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -8607,19 +9564,27 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <f>(G120-E120)/E120</f>
+        <f t="shared" si="10"/>
         <v>-5.4347826086956569E-2</v>
       </c>
       <c r="R120" s="6">
-        <f>H120-Q120</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S120" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T120">
+        <f>(H120+1)*E120</f>
+        <v>0.87</v>
+      </c>
+      <c r="U120">
+        <f>G120-T120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -8669,19 +9634,27 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <f>(G121-E121)/E121</f>
+        <f t="shared" si="10"/>
         <v>6.8965517241379379E-2</v>
       </c>
       <c r="R121" s="6">
-        <f>H121-Q121</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S121" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T121">
+        <f>(H121+1)*E121</f>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="U121">
+        <f>G121-T121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -8731,19 +9704,27 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <f>(G122-E122)/E122</f>
+        <f t="shared" si="10"/>
         <v>-0.12903225806451613</v>
       </c>
       <c r="R122" s="6">
-        <f>H122-Q122</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S122" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T122">
+        <f>(H122+1)*E122</f>
+        <v>0.81000000000000016</v>
+      </c>
+      <c r="U122">
+        <f>G122-T122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>16</v>
       </c>
@@ -8793,19 +9774,27 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <f>(G123-E123)/E123</f>
+        <f t="shared" si="10"/>
         <v>6.1728395061728308E-2</v>
       </c>
       <c r="R123" s="6">
-        <f>H123-Q123</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S123" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T123">
+        <f>(H123+1)*E123</f>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="U123">
+        <f>G123-T123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -8855,19 +9844,27 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <f>(G124-E124)/E124</f>
+        <f t="shared" si="10"/>
         <v>1.1627906976744196E-2</v>
       </c>
       <c r="R124" s="6">
-        <f>H124-Q124</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S124" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T124">
+        <f>(H124+1)*E124</f>
+        <v>0.87</v>
+      </c>
+      <c r="U124">
+        <f>G124-T124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -8917,19 +9914,27 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <f>(G125-E125)/E125</f>
+        <f t="shared" si="10"/>
         <v>-0.28735632183908044</v>
       </c>
       <c r="R125" s="6">
-        <f>H125-Q125</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S125" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T125">
+        <f>(H125+1)*E125</f>
+        <v>0.62</v>
+      </c>
+      <c r="U125">
+        <f>G125-T125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -8951,7 +9956,7 @@
       <c r="G126">
         <v>0.5</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="11">
         <v>0.19354838709677419</v>
       </c>
       <c r="I126">
@@ -8983,15 +9988,23 @@
         <v>0.19354838709677419</v>
       </c>
       <c r="R126" s="6">
-        <f>H126-Q126</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S126" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T126">
+        <f>G126+(H126*E126)</f>
+        <v>0.62</v>
+      </c>
+      <c r="U126">
+        <f>E126-T126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -9045,15 +10058,23 @@
         <v>-3.0000000000000027E-2</v>
       </c>
       <c r="R127" s="6">
-        <f>H127-Q127</f>
+        <f t="shared" si="4"/>
         <v>2.7755575615628914E-17</v>
       </c>
       <c r="S127" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T127">
+        <f>(H127+1)*E127</f>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="U127">
+        <f>G127-T127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -9075,7 +10096,7 @@
       <c r="G128">
         <v>0.64</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="11">
         <v>-0.31958762886597941</v>
       </c>
       <c r="I128">
@@ -9107,15 +10128,23 @@
         <v>-0.31958762886597947</v>
       </c>
       <c r="R128" s="6">
-        <f>H128-Q128</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S128" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T128">
+        <f>G128+(H128*E128)</f>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="U128">
+        <f>E128-T128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -9169,15 +10198,23 @@
         <v>-0.28125</v>
       </c>
       <c r="R129" s="6">
-        <f>H129-Q129</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S129" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T129">
+        <f>(H129+1)*E129</f>
+        <v>0.46</v>
+      </c>
+      <c r="U129">
+        <f>G129-T129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -9199,7 +10236,7 @@
       <c r="G130">
         <v>0.51</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="11">
         <v>-0.108695652173913</v>
       </c>
       <c r="I130">
@@ -9231,15 +10268,23 @@
         <v>-0.10869565217391301</v>
       </c>
       <c r="R130" s="6">
-        <f>H130-Q130</f>
+        <f t="shared" ref="R130:R193" si="11">H130-Q130</f>
         <v>0</v>
       </c>
       <c r="S130" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T130">
+        <f>G130+(H130*E130)</f>
+        <v>0.46</v>
+      </c>
+      <c r="U130">
+        <f>E130-T130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -9293,15 +10338,23 @@
         <v>-3.9215686274509838E-2</v>
       </c>
       <c r="R131" s="6">
-        <f>H131-Q131</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S131" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T131">
+        <f>(H131+1)*E131</f>
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="U131">
+        <f>G131-T131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -9323,7 +10376,7 @@
       <c r="G132">
         <v>0.52</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="11">
         <v>-6.1224489795918373E-2</v>
       </c>
       <c r="I132">
@@ -9355,15 +10408,23 @@
         <v>-6.1224489795918421E-2</v>
       </c>
       <c r="R132" s="6">
-        <f>H132-Q132</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S132" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T132">
+        <f>G132+(H132*E132)</f>
+        <v>0.49</v>
+      </c>
+      <c r="U132">
+        <f>E132-T132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -9417,15 +10478,23 @@
         <v>-5.7692307692307744E-2</v>
       </c>
       <c r="R133" s="6">
-        <f>H133-Q133</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S133" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T133">
+        <f>(H133+1)*E133</f>
+        <v>0.49</v>
+      </c>
+      <c r="U133">
+        <f>G133-T133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -9447,7 +10516,7 @@
       <c r="G134">
         <v>0.51</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="11">
         <v>-4.0816326530612242E-2</v>
       </c>
       <c r="I134">
@@ -9479,15 +10548,23 @@
         <v>-4.0816326530612283E-2</v>
       </c>
       <c r="R134" s="6">
-        <f>H134-Q134</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S134" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T134">
+        <f>G134+(H134*E134)</f>
+        <v>0.49</v>
+      </c>
+      <c r="U134">
+        <f>E134-T134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -9541,15 +10618,23 @@
         <v>0.1176470588235293</v>
       </c>
       <c r="R135" s="6">
-        <f>H135-Q135</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S135" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T135">
+        <f>(H135+1)*E135</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U135">
+        <f>G135-T135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -9603,15 +10688,23 @@
         <v>-0.13157894736842099</v>
       </c>
       <c r="R136" s="6">
-        <f>H136-Q136</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S136" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T136">
+        <f>(H136+1)*E136</f>
+        <v>0.49500000000000005</v>
+      </c>
+      <c r="U136">
+        <f>G136-T136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -9665,15 +10758,23 @@
         <v>-0.1111111111111111</v>
       </c>
       <c r="R137" s="6">
-        <f>H137-Q137</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S137" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T137">
+        <f>(H137+1)*E137</f>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="U137">
+        <f>G137-T137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -9695,7 +10796,7 @@
       <c r="G138">
         <v>0.4</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="11">
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="I138">
@@ -9727,15 +10828,23 @@
         <v>9.090909090909087E-2</v>
       </c>
       <c r="R138" s="6">
-        <f>H138-Q138</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S138" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T138">
+        <f>G138+(H138*E138)</f>
+        <v>0.44</v>
+      </c>
+      <c r="U138">
+        <f>E138-T138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -9789,15 +10898,23 @@
         <v>-0.17500000000000002</v>
       </c>
       <c r="R139" s="6">
-        <f>H139-Q139</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S139" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T139">
+        <f>(H139+1)*E139</f>
+        <v>0.33</v>
+      </c>
+      <c r="U139">
+        <f>G139-T139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -9819,7 +10936,7 @@
       <c r="G140">
         <v>0.43</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="11">
         <v>-0.30303030303030298</v>
       </c>
       <c r="I140">
@@ -9851,15 +10968,23 @@
         <v>-0.30303030303030293</v>
       </c>
       <c r="R140" s="6">
-        <f>H140-Q140</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S140" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T140">
+        <f>G140+(H140*E140)</f>
+        <v>0.33</v>
+      </c>
+      <c r="U140">
+        <f>E140-T140</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>16</v>
       </c>
@@ -9913,15 +11038,23 @@
         <v>-0.20930232558139528</v>
       </c>
       <c r="R141" s="6">
-        <f>H141-Q141</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S141" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T141">
+        <f>(H141+1)*E141</f>
+        <v>0.34</v>
+      </c>
+      <c r="U141">
+        <f>G141-T141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -9943,7 +11076,7 @@
       <c r="G142">
         <v>0.36</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="11">
         <v>-5.8823529411764573E-2</v>
       </c>
       <c r="I142">
@@ -9975,15 +11108,23 @@
         <v>-5.8823529411764594E-2</v>
       </c>
       <c r="R142" s="6">
-        <f>H142-Q142</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S142" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T142">
+        <f>G142+(H142*E142)</f>
+        <v>0.34</v>
+      </c>
+      <c r="U142">
+        <f>E142-T142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>16</v>
       </c>
@@ -10037,15 +11178,23 @@
         <v>-8.3333333333333259E-2</v>
       </c>
       <c r="R143" s="6">
-        <f>H143-Q143</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S143" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T143">
+        <f>(H143+1)*E143</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="U143">
+        <f>G143-T143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>16</v>
       </c>
@@ -10067,7 +11216,7 @@
       <c r="G144">
         <v>0.32500000000000001</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="11">
         <v>1.515151515151515E-2</v>
       </c>
       <c r="I144">
@@ -10099,15 +11248,23 @@
         <v>1.5151515151515164E-2</v>
       </c>
       <c r="R144" s="6">
-        <f>H144-Q144</f>
+        <f t="shared" si="11"/>
         <v>-1.3877787807814457E-17</v>
       </c>
       <c r="S144" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T144">
+        <f>G144+(H144*E144)</f>
+        <v>0.33</v>
+      </c>
+      <c r="U144">
+        <f>E144-T144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>16</v>
       </c>
@@ -10161,15 +11318,23 @@
         <v>-9.2307692307692382E-2</v>
       </c>
       <c r="R145" s="6">
-        <f>H145-Q145</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S145" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T145">
+        <f>(H145+1)*E145</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="U145">
+        <f>G145-T145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>16</v>
       </c>
@@ -10191,7 +11356,7 @@
       <c r="G146">
         <v>0.27</v>
       </c>
-      <c r="H146">
+      <c r="H146" s="11">
         <v>8.4745762711864403E-2</v>
       </c>
       <c r="I146">
@@ -10223,15 +11388,23 @@
         <v>8.4745762711864292E-2</v>
       </c>
       <c r="R146" s="6">
-        <f>H146-Q146</f>
+        <f t="shared" si="11"/>
         <v>1.1102230246251565E-16</v>
       </c>
       <c r="S146" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T146">
+        <f>G146+(H146*E146)</f>
+        <v>0.29500000000000004</v>
+      </c>
+      <c r="U146">
+        <f>E146-T146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>16</v>
       </c>
@@ -10285,15 +11458,23 @@
         <v>1.8518518518518535E-2</v>
       </c>
       <c r="R147" s="6">
-        <f>H147-Q147</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S147" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T147">
+        <f>(H147+1)*E147</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="U147">
+        <f>G147-T147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -10315,7 +11496,7 @@
       <c r="G148">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H148">
+      <c r="H148" s="11">
         <v>0</v>
       </c>
       <c r="I148">
@@ -10347,15 +11528,23 @@
         <v>0</v>
       </c>
       <c r="R148" s="6">
-        <f>H148-Q148</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S148" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T148">
+        <f>G148+(H148*E148)</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="U148">
+        <f>E148-T148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -10409,15 +11598,23 @@
         <v>-9.0909090909090981E-2</v>
       </c>
       <c r="R149" s="6">
-        <f>H149-Q149</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S149" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T149">
+        <f>(H149+1)*E149</f>
+        <v>0.25</v>
+      </c>
+      <c r="U149">
+        <f>G149-T149</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>16</v>
       </c>
@@ -10439,7 +11636,7 @@
       <c r="G150">
         <v>0.25</v>
       </c>
-      <c r="H150">
+      <c r="H150" s="11">
         <v>0</v>
       </c>
       <c r="I150">
@@ -10471,15 +11668,23 @@
         <v>0</v>
       </c>
       <c r="R150" s="6">
-        <f>H150-Q150</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S150" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T150">
+        <f>G150+(H150*E150)</f>
+        <v>0.25</v>
+      </c>
+      <c r="U150">
+        <f>E150-T150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>16</v>
       </c>
@@ -10533,15 +11738,23 @@
         <v>0.32000000000000006</v>
       </c>
       <c r="R151" s="6">
-        <f>H151-Q151</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S151" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T151">
+        <f>(H151+1)*E151</f>
+        <v>0.33</v>
+      </c>
+      <c r="U151">
+        <f>G151-T151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>16</v>
       </c>
@@ -10595,15 +11808,23 @@
         <v>0.72727272727272707</v>
       </c>
       <c r="R152" s="6">
-        <f>H152-Q152</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S152" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T152">
+        <f>(H152+1)*E152</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U152">
+        <f>G152-T152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>16</v>
       </c>
@@ -10657,15 +11878,23 @@
         <v>0.13157894736842118</v>
       </c>
       <c r="R153" s="6">
-        <f>H153-Q153</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S153" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T153">
+        <f>(H153+1)*E153</f>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="U153">
+        <f>G153-T153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>16</v>
       </c>
@@ -10719,15 +11948,23 @@
         <v>6.9767441860465004E-2</v>
       </c>
       <c r="R154" s="6">
-        <f>H154-Q154</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S154" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T154">
+        <f>(H154+1)*E154</f>
+        <v>0.69</v>
+      </c>
+      <c r="U154">
+        <f>G154-T154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>16</v>
       </c>
@@ -10781,15 +12018,23 @@
         <v>-0.28985507246376807</v>
       </c>
       <c r="R155" s="6">
-        <f>H155-Q155</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S155" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T155">
+        <f>(H155+1)*E155</f>
+        <v>0.49</v>
+      </c>
+      <c r="U155">
+        <f>G155-T155</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>16</v>
       </c>
@@ -10811,7 +12056,7 @@
       <c r="G156">
         <v>0.51</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="11">
         <v>-4.0816326530612242E-2</v>
       </c>
       <c r="I156">
@@ -10843,15 +12088,23 @@
         <v>-4.0816326530612283E-2</v>
       </c>
       <c r="R156" s="6">
-        <f>H156-Q156</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S156" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T156">
+        <f>G156+(H156*E156)</f>
+        <v>0.49</v>
+      </c>
+      <c r="U156">
+        <f>E156-T156</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>16</v>
       </c>
@@ -10905,15 +12158,23 @@
         <v>0</v>
       </c>
       <c r="R157" s="6">
-        <f>H157-Q157</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S157" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T157">
+        <f>(H157+1)*E157</f>
+        <v>0.51</v>
+      </c>
+      <c r="U157">
+        <f>G157-T157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>16</v>
       </c>
@@ -10935,7 +12196,7 @@
       <c r="G158">
         <v>0.53500000000000003</v>
       </c>
-      <c r="H158">
+      <c r="H158" s="11">
         <v>-4.9019607843137247E-2</v>
       </c>
       <c r="I158">
@@ -10967,15 +12228,23 @@
         <v>-4.9019607843137296E-2</v>
       </c>
       <c r="R158" s="6">
-        <f>H158-Q158</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S158" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T158">
+        <f>G158+(H158*E158)</f>
+        <v>0.51</v>
+      </c>
+      <c r="U158">
+        <f>E158-T158</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -11025,19 +12294,27 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <f>(G159-E159)/E159</f>
+        <f t="shared" ref="Q159:Q167" si="12">(G159-E159)/E159</f>
         <v>0.54205607476635498</v>
       </c>
       <c r="R159" s="6">
-        <f>H159-Q159</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S159" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T159">
+        <f>(H159+1)*E159</f>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="U159">
+        <f>G159-T159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>16</v>
       </c>
@@ -11087,19 +12364,27 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <f>(G160-E160)/E160</f>
+        <f t="shared" si="12"/>
         <v>0.84242424242424252</v>
       </c>
       <c r="R160" s="6">
-        <f>H160-Q160</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S160" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T160">
+        <f>(H160+1)*E160</f>
+        <v>1.5199999999999998</v>
+      </c>
+      <c r="U160">
+        <f>G160-T160</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>16</v>
       </c>
@@ -11149,19 +12434,27 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <f>(G161-E161)/E161</f>
+        <f t="shared" si="12"/>
         <v>8.8815789473684209E-2</v>
       </c>
       <c r="R161" s="6">
-        <f>H161-Q161</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S161" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T161">
+        <f>(H161+1)*E161</f>
+        <v>1.6550000000000002</v>
+      </c>
+      <c r="U161">
+        <f>G161-T161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>16</v>
       </c>
@@ -11211,19 +12504,27 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <f>(G162-E162)/E162</f>
+        <f t="shared" si="12"/>
         <v>-0.33534743202416917</v>
       </c>
       <c r="R162" s="6">
-        <f>H162-Q162</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S162" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T162">
+        <f>(H162+1)*E162</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U162">
+        <f>G162-T162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -11273,19 +12574,27 @@
         <v>3</v>
       </c>
       <c r="Q163">
-        <f>(G163-E163)/E163</f>
+        <f t="shared" si="12"/>
         <v>0.46363636363636362</v>
       </c>
       <c r="R163" s="6">
-        <f>H163-Q163</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S163" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T163">
+        <f>(H163+1)*E163</f>
+        <v>1.6100000000000003</v>
+      </c>
+      <c r="U163">
+        <f>G163-T163</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>16</v>
       </c>
@@ -11335,19 +12644,27 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <f>(G164-E164)/E164</f>
+        <f t="shared" si="12"/>
         <v>-2.4844720496894429E-2</v>
       </c>
       <c r="R164" s="6">
-        <f>H164-Q164</f>
+        <f t="shared" si="11"/>
         <v>-9.0205620750793969E-17</v>
       </c>
       <c r="S164" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T164">
+        <f>(H164+1)*E164</f>
+        <v>1.5699999999999998</v>
+      </c>
+      <c r="U164">
+        <f>G164-T164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>16</v>
       </c>
@@ -11397,19 +12714,27 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <f>(G165-E165)/E165</f>
+        <f t="shared" si="12"/>
         <v>-4.4585987261146535E-2</v>
       </c>
       <c r="R165" s="6">
-        <f>H165-Q165</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S165" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T165">
+        <f>(H165+1)*E165</f>
+        <v>1.5</v>
+      </c>
+      <c r="U165">
+        <f>G165-T165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>16</v>
       </c>
@@ -11459,19 +12784,27 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <f>(G166-E166)/E166</f>
+        <f t="shared" si="12"/>
         <v>-1.3333333333333345E-2</v>
       </c>
       <c r="R166" s="6">
-        <f>H166-Q166</f>
+        <f t="shared" si="11"/>
         <v>1.3877787807814457E-17</v>
       </c>
       <c r="S166" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T166">
+        <f>(H166+1)*E166</f>
+        <v>1.48</v>
+      </c>
+      <c r="U166">
+        <f>G166-T166</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>16</v>
       </c>
@@ -11521,19 +12854,27 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <f>(G167-E167)/E167</f>
+        <f t="shared" si="12"/>
         <v>-0.27027027027027023</v>
       </c>
       <c r="R167" s="6">
-        <f>H167-Q167</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S167" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T167">
+        <f>(H167+1)*E167</f>
+        <v>1.08</v>
+      </c>
+      <c r="U167">
+        <f>G167-T167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>16</v>
       </c>
@@ -11555,7 +12896,7 @@
       <c r="G168">
         <v>1.3149999999999999</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="11">
         <v>-0.21759259259259259</v>
       </c>
       <c r="I168">
@@ -11587,15 +12928,23 @@
         <v>-0.21759259259259248</v>
       </c>
       <c r="R168" s="6">
-        <f>H168-Q168</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S168" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T168">
+        <f>G168+(H168*E168)</f>
+        <v>1.0799999999999998</v>
+      </c>
+      <c r="U168">
+        <f>E168-T168</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>16</v>
       </c>
@@ -11649,15 +12998,23 @@
         <v>-0.12547528517110271</v>
       </c>
       <c r="R169" s="6">
-        <f>H169-Q169</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S169" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T169">
+        <f>(H169+1)*E169</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="U169">
+        <f>G169-T169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>16</v>
       </c>
@@ -11679,7 +13036,7 @@
       <c r="G170">
         <v>0.97</v>
       </c>
-      <c r="H170">
+      <c r="H170" s="11">
         <v>0.15652173913043479</v>
       </c>
       <c r="I170">
@@ -11711,15 +13068,23 @@
         <v>0.15652173913043474</v>
       </c>
       <c r="R170" s="6">
-        <f>H170-Q170</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S170" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T170">
+        <f>G170+(H170*E170)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="U170">
+        <f>E170-T170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>16</v>
       </c>
@@ -11773,15 +13138,23 @@
         <v>-6.1855670103092723E-2</v>
       </c>
       <c r="R171" s="6">
-        <f>H171-Q171</f>
+        <f t="shared" si="11"/>
         <v>-6.9388939039072284E-17</v>
       </c>
       <c r="S171" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T171">
+        <f>(H171+1)*E171</f>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="U171">
+        <f>G171-T171</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>16</v>
       </c>
@@ -11803,7 +13176,7 @@
       <c r="G172">
         <v>0.8</v>
       </c>
-      <c r="H172">
+      <c r="H172" s="11">
         <v>0.12087912087912089</v>
       </c>
       <c r="I172">
@@ -11835,15 +13208,23 @@
         <v>0.12087912087912087</v>
       </c>
       <c r="R172" s="6">
-        <f>H172-Q172</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S172" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T172">
+        <f>G172+(H172*E172)</f>
+        <v>0.91</v>
+      </c>
+      <c r="U172">
+        <f>E172-T172</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>16</v>
       </c>
@@ -11897,15 +13278,23 @@
         <v>-0.13750000000000012</v>
       </c>
       <c r="R173" s="6">
-        <f>H173-Q173</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S173" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T173">
+        <f>(H173+1)*E173</f>
+        <v>0.69</v>
+      </c>
+      <c r="U173">
+        <f>G173-T173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>16</v>
       </c>
@@ -11927,7 +13316,7 @@
       <c r="G174">
         <v>0.77500000000000002</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="11">
         <v>-0.12318840579710159</v>
       </c>
       <c r="I174">
@@ -11959,15 +13348,23 @@
         <v>-0.12318840579710157</v>
       </c>
       <c r="R174" s="6">
-        <f>H174-Q174</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S174" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T174">
+        <f>G174+(H174*E174)</f>
+        <v>0.69</v>
+      </c>
+      <c r="U174">
+        <f>E174-T174</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>16</v>
       </c>
@@ -12021,15 +13418,23 @@
         <v>-0.12258064516129029</v>
       </c>
       <c r="R175" s="6">
-        <f>H175-Q175</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S175" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T175">
+        <f>(H175+1)*E175</f>
+        <v>0.68000000000000016</v>
+      </c>
+      <c r="U175">
+        <f>G175-T175</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>16</v>
       </c>
@@ -12051,7 +13456,7 @@
       <c r="G176">
         <v>0.85</v>
       </c>
-      <c r="H176">
+      <c r="H176" s="11">
         <v>-0.24999999999999981</v>
       </c>
       <c r="I176">
@@ -12083,15 +13488,23 @@
         <v>-0.24999999999999989</v>
       </c>
       <c r="R176" s="6">
-        <f>H176-Q176</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S176" s="3" t="str">
-        <f t="shared" ref="S176:S218" si="3">IF(F176=D177,"TRUE", "FALSE")</f>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S176:S216" si="13">IF(F176=D177,"TRUE", "FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="T176">
+        <f>G176+(H176*E176)</f>
+        <v>0.68000000000000016</v>
+      </c>
+      <c r="U176">
+        <f>E176-T176</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -12145,15 +13558,23 @@
         <v>-0.28235294117647058</v>
       </c>
       <c r="R177" s="6">
-        <f>H177-Q177</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S177" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T177">
+        <f>(H177+1)*E177</f>
+        <v>0.61</v>
+      </c>
+      <c r="U177">
+        <f>G177-T177</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -12175,7 +13596,7 @@
       <c r="G178">
         <v>0.505</v>
       </c>
-      <c r="H178">
+      <c r="H178" s="11">
         <v>0.1721311475409836</v>
       </c>
       <c r="I178">
@@ -12207,15 +13628,23 @@
         <v>0.17213114754098358</v>
       </c>
       <c r="R178" s="6">
-        <f>H178-Q178</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S178" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T178">
+        <f>G178+(H178*E178)</f>
+        <v>0.61</v>
+      </c>
+      <c r="U178">
+        <f>E178-T178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>16</v>
       </c>
@@ -12269,15 +13698,23 @@
         <v>-0.1089108910891089</v>
       </c>
       <c r="R179" s="6">
-        <f>H179-Q179</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S179" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T179">
+        <f>(H179+1)*E179</f>
+        <v>0.45</v>
+      </c>
+      <c r="U179">
+        <f>G179-T179</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>16</v>
       </c>
@@ -12299,7 +13736,7 @@
       <c r="G180">
         <v>0.54</v>
       </c>
-      <c r="H180">
+      <c r="H180" s="11">
         <v>-0.2</v>
       </c>
       <c r="I180">
@@ -12331,15 +13768,23 @@
         <v>-0.20000000000000004</v>
       </c>
       <c r="R180" s="6">
-        <f>H180-Q180</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S180" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T180">
+        <f>G180+(H180*E180)</f>
+        <v>0.45</v>
+      </c>
+      <c r="U180">
+        <f>E180-T180</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>16</v>
       </c>
@@ -12393,15 +13838,23 @@
         <v>-0.20370370370370378</v>
       </c>
       <c r="R181" s="6">
-        <f>H181-Q181</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S181" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T181">
+        <f>(H181+1)*E181</f>
+        <v>0.43</v>
+      </c>
+      <c r="U181">
+        <f>G181-T181</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>16</v>
       </c>
@@ -12423,7 +13876,7 @@
       <c r="G182">
         <v>0.5</v>
       </c>
-      <c r="H182">
+      <c r="H182" s="11">
         <v>-0.16279069767441859</v>
       </c>
       <c r="I182">
@@ -12455,15 +13908,23 @@
         <v>-0.16279069767441862</v>
       </c>
       <c r="R182" s="6">
-        <f>H182-Q182</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S182" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T182">
+        <f>G182+(H182*E182)</f>
+        <v>0.43</v>
+      </c>
+      <c r="U182">
+        <f>E182-T182</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>16</v>
       </c>
@@ -12513,19 +13974,27 @@
         <v>3</v>
       </c>
       <c r="Q183">
-        <f>(G183-E183)/E183</f>
+        <f t="shared" ref="Q183:Q189" si="14">(G183-E183)/E183</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="R183" s="6">
-        <f>H183-Q183</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S183" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T183">
+        <f>(H183+1)*E183</f>
+        <v>0.78</v>
+      </c>
+      <c r="U183">
+        <f>G183-T183</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>16</v>
       </c>
@@ -12575,19 +14044,27 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <f>(G184-E184)/E184</f>
+        <f t="shared" si="14"/>
         <v>-0.17948717948717949</v>
       </c>
       <c r="R184" s="6">
-        <f>H184-Q184</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S184" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T184">
+        <f>(H184+1)*E184</f>
+        <v>0.64</v>
+      </c>
+      <c r="U184">
+        <f>G184-T184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>16</v>
       </c>
@@ -12637,19 +14114,27 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <f>(G185-E185)/E185</f>
+        <f t="shared" si="14"/>
         <v>9.3749999999999903E-2</v>
       </c>
       <c r="R185" s="6">
-        <f>H185-Q185</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S185" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T185">
+        <f>(H185+1)*E185</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="U185">
+        <f>G185-T185</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -12699,19 +14184,27 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <f>(G186-E186)/E186</f>
+        <f t="shared" si="14"/>
         <v>7.1428571428571494E-2</v>
       </c>
       <c r="R186" s="6">
-        <f>H186-Q186</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S186" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T186">
+        <f>(H186+1)*E186</f>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="U186">
+        <f>G186-T186</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>16</v>
       </c>
@@ -12761,19 +14254,27 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <f>(G187-E187)/E187</f>
+        <f t="shared" si="14"/>
         <v>0.1333333333333333</v>
       </c>
       <c r="R187" s="6">
-        <f>H187-Q187</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S187" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T187">
+        <f>(H187+1)*E187</f>
+        <v>0.85</v>
+      </c>
+      <c r="U187">
+        <f>G187-T187</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -12823,19 +14324,27 @@
         <v>4</v>
       </c>
       <c r="Q188">
-        <f>(G188-E188)/E188</f>
+        <f t="shared" si="14"/>
         <v>-0.13529411764705881</v>
       </c>
       <c r="R188" s="6">
-        <f>H188-Q188</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S188" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T188">
+        <f>(H188+1)*E188</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="U188">
+        <f>G188-T188</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>16</v>
       </c>
@@ -12885,19 +14394,27 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <f>(G189-E189)/E189</f>
+        <f t="shared" si="14"/>
         <v>-0.14285714285714285</v>
       </c>
       <c r="R189" s="6">
-        <f>H189-Q189</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S189" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T189">
+        <f>(H189+1)*E189</f>
+        <v>0.63</v>
+      </c>
+      <c r="U189">
+        <f>G189-T189</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>16</v>
       </c>
@@ -12919,7 +14436,7 @@
       <c r="G190">
         <v>0.69499999999999995</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="11">
         <v>-0.103174603174603</v>
       </c>
       <c r="I190">
@@ -12951,15 +14468,23 @@
         <v>-0.10317460317460309</v>
       </c>
       <c r="R190" s="6">
-        <f>H190-Q190</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S190" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T190">
+        <f>G190+(H190*E190)</f>
+        <v>0.63000000000000012</v>
+      </c>
+      <c r="U190">
+        <f>E190-T190</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>16</v>
       </c>
@@ -13013,15 +14538,23 @@
         <v>0</v>
       </c>
       <c r="R191" s="6">
-        <f>H191-Q191</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S191" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T191">
+        <f>(H191+1)*E191</f>
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="U191">
+        <f>G191-T191</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>16</v>
       </c>
@@ -13043,7 +14576,7 @@
       <c r="G192">
         <v>0.68500000000000005</v>
       </c>
-      <c r="H192">
+      <c r="H192" s="11">
         <v>1.4388489208632831E-2</v>
       </c>
       <c r="I192">
@@ -13075,15 +14608,23 @@
         <v>1.4388489208632947E-2</v>
       </c>
       <c r="R192" s="6">
-        <f>H192-Q192</f>
+        <f t="shared" si="11"/>
         <v>-1.1622647289044608E-16</v>
       </c>
       <c r="S192" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T192">
+        <f>G192+(H192*E192)</f>
+        <v>0.69499999999999984</v>
+      </c>
+      <c r="U192">
+        <f>E192-T192</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>16</v>
       </c>
@@ -13133,19 +14674,27 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <f>(G193-E193)/E193</f>
+        <f t="shared" ref="Q193:Q207" si="15">(G193-E193)/E193</f>
         <v>-1.4598540145985413E-2</v>
       </c>
       <c r="R193" s="6">
-        <f>H193-Q193</f>
+        <f t="shared" si="11"/>
         <v>-1.1622647289044608E-16</v>
       </c>
       <c r="S193" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T193">
+        <f>(H193+1)*E193</f>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="U193">
+        <f>G193-T193</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -13195,19 +14744,27 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <f>(G194-E194)/E194</f>
+        <f t="shared" si="15"/>
         <v>-7.4074074074074138E-3</v>
       </c>
       <c r="R194" s="6">
-        <f>H194-Q194</f>
+        <f t="shared" ref="R194:R257" si="16">H194-Q194</f>
         <v>0</v>
       </c>
       <c r="S194" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T194">
+        <f>(H194+1)*E194</f>
+        <v>0.67</v>
+      </c>
+      <c r="U194">
+        <f>G194-T194</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>16</v>
       </c>
@@ -13257,19 +14814,27 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <f>(G195-E195)/E195</f>
+        <f t="shared" si="15"/>
         <v>6.7164179104477501E-2</v>
       </c>
       <c r="R195" s="6">
-        <f>H195-Q195</f>
+        <f t="shared" si="16"/>
         <v>1.1102230246251565E-16</v>
       </c>
       <c r="S195" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T195">
+        <f>(H195+1)*E195</f>
+        <v>0.71500000000000008</v>
+      </c>
+      <c r="U195">
+        <f>G195-T195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>16</v>
       </c>
@@ -13319,19 +14884,27 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <f>(G196-E196)/E196</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R196" s="6">
-        <f>H196-Q196</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S196" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T196">
+        <f>(H196+1)*E196</f>
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="U196">
+        <f>G196-T196</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>16</v>
       </c>
@@ -13381,19 +14954,27 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <f>(G197-E197)/E197</f>
+        <f t="shared" si="15"/>
         <v>6.9930069930069999E-3</v>
       </c>
       <c r="R197" s="6">
-        <f>H197-Q197</f>
+        <f t="shared" si="16"/>
         <v>-6.9388939039072284E-18</v>
       </c>
       <c r="S197" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T197">
+        <f>(H197+1)*E197</f>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="U197">
+        <f>G197-T197</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>16</v>
       </c>
@@ -13443,19 +15024,27 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <f>(G198-E198)/E198</f>
+        <f t="shared" si="15"/>
         <v>-1.3888888888888902E-2</v>
       </c>
       <c r="R198" s="6">
-        <f>H198-Q198</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S198" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T198">
+        <f>(H198+1)*E198</f>
+        <v>0.71</v>
+      </c>
+      <c r="U198">
+        <f>G198-T198</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>16</v>
       </c>
@@ -13505,19 +15094,27 @@
         <v>3</v>
       </c>
       <c r="Q199">
-        <f>(G199-E199)/E199</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R199" s="6">
-        <f>H199-Q199</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S199" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T199">
+        <f>(H199+1)*E199</f>
+        <v>0.71</v>
+      </c>
+      <c r="U199">
+        <f>G199-T199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>16</v>
       </c>
@@ -13567,19 +15164,27 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <f>(G200-E200)/E200</f>
+        <f t="shared" si="15"/>
         <v>4.2253521126760604E-2</v>
       </c>
       <c r="R200" s="6">
-        <f>H200-Q200</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S200" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T200">
+        <f>(H200+1)*E200</f>
+        <v>0.73999999999999988</v>
+      </c>
+      <c r="U200">
+        <f>G200-T200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>16</v>
       </c>
@@ -13629,19 +15234,27 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <f>(G201-E201)/E201</f>
+        <f t="shared" si="15"/>
         <v>1.3513513513513526E-2</v>
       </c>
       <c r="R201" s="6">
-        <f>H201-Q201</f>
+        <f t="shared" si="16"/>
         <v>-1.5612511283791264E-17</v>
       </c>
       <c r="S201" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T201">
+        <f>(H201+1)*E201</f>
+        <v>0.75</v>
+      </c>
+      <c r="U201">
+        <f>G201-T201</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>16</v>
       </c>
@@ -13691,19 +15304,27 @@
         <v>3</v>
       </c>
       <c r="Q202">
-        <f>(G202-E202)/E202</f>
+        <f t="shared" si="15"/>
         <v>-1.3333333333333345E-2</v>
       </c>
       <c r="R202" s="6">
-        <f>H202-Q202</f>
+        <f t="shared" si="16"/>
         <v>1.3877787807814457E-17</v>
       </c>
       <c r="S202" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T202">
+        <f>(H202+1)*E202</f>
+        <v>0.74</v>
+      </c>
+      <c r="U202">
+        <f>G202-T202</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>16</v>
       </c>
@@ -13753,19 +15374,27 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <f>(G203-E203)/E203</f>
+        <f t="shared" si="15"/>
         <v>0.1891891891891892</v>
       </c>
       <c r="R203" s="6">
-        <f>H203-Q203</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S203" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T203">
+        <f>(H203+1)*E203</f>
+        <v>0.88</v>
+      </c>
+      <c r="U203">
+        <f>G203-T203</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>16</v>
       </c>
@@ -13815,19 +15444,27 @@
         <v>3</v>
       </c>
       <c r="Q204">
-        <f>(G204-E204)/E204</f>
+        <f t="shared" si="15"/>
         <v>0.55113636363636365</v>
       </c>
       <c r="R204" s="6">
-        <f>H204-Q204</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S204" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T204">
+        <f>(H204+1)*E204</f>
+        <v>1.3650000000000002</v>
+      </c>
+      <c r="U204">
+        <f>G204-T204</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>16</v>
       </c>
@@ -13877,19 +15514,27 @@
         <v>4</v>
       </c>
       <c r="Q205">
-        <f>(G205-E205)/E205</f>
+        <f t="shared" si="15"/>
         <v>0.17216117216117224</v>
       </c>
       <c r="R205" s="6">
-        <f>H205-Q205</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S205" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T205">
+        <f>(H205+1)*E205</f>
+        <v>1.6</v>
+      </c>
+      <c r="U205">
+        <f>G205-T205</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>16</v>
       </c>
@@ -13939,19 +15584,27 @@
         <v>3</v>
       </c>
       <c r="Q206">
-        <f>(G206-E206)/E206</f>
+        <f t="shared" si="15"/>
         <v>-8.7500000000000078E-2</v>
       </c>
       <c r="R206" s="6">
-        <f>H206-Q206</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S206" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T206">
+        <f>(H206+1)*E206</f>
+        <v>1.46</v>
+      </c>
+      <c r="U206">
+        <f>G206-T206</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>16</v>
       </c>
@@ -14001,19 +15654,27 @@
         <v>3</v>
       </c>
       <c r="Q207">
-        <f>(G207-E207)/E207</f>
+        <f t="shared" si="15"/>
         <v>-0.18835616438356159</v>
       </c>
       <c r="R207" s="6">
-        <f>H207-Q207</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S207" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T207">
+        <f>(H207+1)*E207</f>
+        <v>1.1849999999999998</v>
+      </c>
+      <c r="U207">
+        <f>G207-T207</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -14035,7 +15696,7 @@
       <c r="G208">
         <v>1.35</v>
       </c>
-      <c r="H208">
+      <c r="H208" s="11">
         <v>-0.13924050632911389</v>
       </c>
       <c r="I208">
@@ -14067,15 +15728,23 @@
         <v>-0.13924050632911394</v>
       </c>
       <c r="R208" s="6">
-        <f>H208-Q208</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S208" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T208">
+        <f>G208+(H208*E208)</f>
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="U208">
+        <f>E208-T208</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>16</v>
       </c>
@@ -14129,15 +15798,23 @@
         <v>-0.1111111111111112</v>
       </c>
       <c r="R209" s="6">
-        <f>H209-Q209</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S209" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T209">
+        <f>(H209+1)*E209</f>
+        <v>1.2</v>
+      </c>
+      <c r="U209">
+        <f>G209-T209</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>16</v>
       </c>
@@ -14159,7 +15836,7 @@
       <c r="G210">
         <v>1.2549999999999999</v>
       </c>
-      <c r="H210">
+      <c r="H210" s="11">
         <v>-4.5833333333333177E-2</v>
       </c>
       <c r="I210">
@@ -14191,15 +15868,23 @@
         <v>-4.5833333333333282E-2</v>
       </c>
       <c r="R210" s="6">
-        <f>H210-Q210</f>
+        <f t="shared" si="16"/>
         <v>1.0408340855860843E-16</v>
       </c>
       <c r="S210" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T210">
+        <f>G210+(H210*E210)</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="U210">
+        <f>E210-T210</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>16</v>
       </c>
@@ -14253,15 +15938,23 @@
         <v>0.12350597609561756</v>
       </c>
       <c r="R211" s="6">
-        <f>H211-Q211</f>
+        <f t="shared" si="16"/>
         <v>1.3877787807814457E-16</v>
       </c>
       <c r="S211" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T211">
+        <f>(H211+1)*E211</f>
+        <v>1.41</v>
+      </c>
+      <c r="U211">
+        <f>G211-T211</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>16</v>
       </c>
@@ -14315,15 +16008,23 @@
         <v>2.8368794326241162E-2</v>
       </c>
       <c r="R212" s="6">
-        <f>H212-Q212</f>
+        <f t="shared" si="16"/>
         <v>-3.1225022567582528E-17</v>
       </c>
       <c r="S212" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T212">
+        <f>(H212+1)*E212</f>
+        <v>1.45</v>
+      </c>
+      <c r="U212">
+        <f>G212-T212</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>16</v>
       </c>
@@ -14377,15 +16078,23 @@
         <v>-0.29655172413793102</v>
       </c>
       <c r="R213" s="6">
-        <f>H213-Q213</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S213" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T213">
+        <f>(H213+1)*E213</f>
+        <v>1.02</v>
+      </c>
+      <c r="U213">
+        <f>G213-T213</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>16</v>
       </c>
@@ -14407,7 +16116,7 @@
       <c r="G214">
         <v>1.42</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="11">
         <v>-0.39215686274509798</v>
       </c>
       <c r="I214">
@@ -14439,15 +16148,23 @@
         <v>-0.39215686274509792</v>
       </c>
       <c r="R214" s="6">
-        <f>H214-Q214</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S214" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T214">
+        <f>G214+(H214*E214)</f>
+        <v>1.02</v>
+      </c>
+      <c r="U214">
+        <f>E214-T214</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>16</v>
       </c>
@@ -14501,15 +16218,23 @@
         <v>-0.18309859154929578</v>
       </c>
       <c r="R215" s="6">
-        <f>H215-Q215</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S215" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T215">
+        <f>(H215+1)*E215</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="U215">
+        <f>G215-T215</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -14531,7 +16256,7 @@
       <c r="G216">
         <v>1.01</v>
       </c>
-      <c r="H216">
+      <c r="H216" s="11">
         <v>0.12931034482758619</v>
       </c>
       <c r="I216">
@@ -14563,15 +16288,23 @@
         <v>0.12931034482758613</v>
       </c>
       <c r="R216" s="6">
-        <f>H216-Q216</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S216" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>TRUE</v>
+      </c>
+      <c r="T216">
+        <f>G216+(H216*E216)</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="U216">
+        <f>E216-T216</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>16</v>
       </c>
@@ -14591,10 +16324,10 @@
         <v>43987</v>
       </c>
       <c r="G217">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
       <c r="H217">
-        <v>5.4455445544554462E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="I217">
         <v>10100</v>
@@ -14622,18 +16355,26 @@
       </c>
       <c r="Q217">
         <f>(G217-E217)/E217</f>
-        <v>3.9603960396039639E-2</v>
+        <v>-1.980198019801982E-2</v>
       </c>
       <c r="R217" s="7">
-        <f>H217-Q217</f>
-        <v>1.4851485148514823E-2</v>
-      </c>
+        <f t="shared" si="16"/>
+        <v>-3.0198019801980183E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H218"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S218" xr:uid="{611C20F5-A509-4A8E-B1EA-7F42228C3EBD}">
     <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="SMA"/>
+      <filters>
+        <filter val="EMA"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="DeathX"/>
       </filters>
     </filterColumn>
   </autoFilter>
